--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/Uni/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5AA70-29B4-F743-BCDC-61D9B83BD756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3782FC-5312-6E4A-AB49-E386BFE69E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="1560" windowWidth="16420" windowHeight="17440" activeTab="1" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
+    <workbookView xWindow="18740" yWindow="1560" windowWidth="16420" windowHeight="17440" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="business" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Bounce Rate</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>Page Weight</t>
+  </si>
+  <si>
+    <t>First User Interaction</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Caching Insights</t>
   </si>
 </sst>
 </file>
@@ -527,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B05BC-FE29-DA4A-8FD7-32707756048E}">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,6 +673,31 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34487771-946F-124D-8F2E-9DC83A4F52C7}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/Uni/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3782FC-5312-6E4A-AB49-E386BFE69E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D685CB-3060-A045-8B3F-4A40AA0A84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="1560" windowWidth="16420" windowHeight="17440" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" activeTab="1" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="business" sheetId="1" r:id="rId1"/>
@@ -206,12 +206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,8 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B05BC-FE29-DA4A-8FD7-32707756048E}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -707,121 +719,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34487771-946F-124D-8F2E-9DC83A4F52C7}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/Uni/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D685CB-3060-A045-8B3F-4A40AA0A84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1E71C-6130-184D-968E-F1FDBE917718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" activeTab="1" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Bounce Rate</t>
   </si>
@@ -163,9 +163,6 @@
     <t>onLoad</t>
   </si>
   <si>
-    <t>DOMContentLoaded</t>
-  </si>
-  <si>
     <t>Page Load Time</t>
   </si>
   <si>
@@ -191,6 +188,30 @@
   </si>
   <si>
     <t>Caching Insights</t>
+  </si>
+  <si>
+    <t>Visually Complete, Last Visual Change</t>
+  </si>
+  <si>
+    <t>Fully Loaded</t>
+  </si>
+  <si>
+    <t>Time to Last Byte</t>
+  </si>
+  <si>
+    <t>DOM Interactive</t>
+  </si>
+  <si>
+    <t>DOM Complete</t>
+  </si>
+  <si>
+    <t>DOM Content Loaded</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Redirect</t>
   </si>
 </sst>
 </file>
@@ -687,27 +708,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -717,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34487771-946F-124D-8F2E-9DC83A4F52C7}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
@@ -745,97 +766,132 @@
     </row>
     <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
+      <c r="A14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
+      <c r="A16" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
+      <c r="A19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A21">
-    <sortCondition ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/Uni/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1E71C-6130-184D-968E-F1FDBE917718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B24BE-CA13-4B42-B0AB-3D6F22ACF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" activeTab="1" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
   </bookViews>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34487771-946F-124D-8F2E-9DC83A4F52C7}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +755,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -785,22 +785,22 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/208379/Desktop/Uni/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B24BE-CA13-4B42-B0AB-3D6F22ACF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF43513-55DA-7747-B34F-CF14CDB9282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" activeTab="1" xr2:uid="{D4DC8DD3-C115-E44D-9698-658756525BAE}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
